--- a/ig/FSHTransformation2.4/StructureDefinition-ror-location.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -528,10 +528,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Indicates whether the location is still in use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J224-StatutLieu-ROR/FHIR/JDV-J224-StatutLieu-ROR</t>
   </si>
   <si>
     <t>.statusCode</t>
@@ -757,6 +754,45 @@
   <si>
     <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/address-country-code}
 </t>
+  </si>
+  <si>
+    <t>Location.address.extension:ror-commune-cog</t>
+  </si>
+  <si>
+    <t>ror-commune-cog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-commune-cog}
+</t>
+  </si>
+  <si>
+    <t>Location.address.extension:ror-address-calculated-distance</t>
+  </si>
+  <si>
+    <t>ror-address-calculated-distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-address-calculated-distance}
+</t>
+  </si>
+  <si>
+    <t>Location.address.extension:ror-geolocation</t>
+  </si>
+  <si>
+    <t>ror-geolocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-geolocation}
+</t>
+  </si>
+  <si>
+    <t>The absolute geographic location</t>
+  </si>
+  <si>
+    <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This        is the same co-ordinate system used in KML).</t>
+  </si>
+  <si>
+    <t>The extension can be further extended to include unique geolocation identifiers, confidence,        altitude, etc.</t>
   </si>
   <si>
     <t>Location.address.use</t>
@@ -1172,9 +1208,6 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
-  </si>
-  <si>
-    <t>The absolute geographic location</t>
   </si>
   <si>
     <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
@@ -1696,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL72"/>
+  <dimension ref="A1:AL75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1730,7 +1763,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.6796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.62109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3429,11 +3462,9 @@
       <c r="X16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Y16" s="2"/>
+      <c r="Z16" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>72</v>
@@ -3466,18 +3497,18 @@
         <v>92</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3500,13 +3531,13 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3536,11 +3567,11 @@
         <v>104</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>72</v>
       </c>
@@ -3557,7 +3588,7 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
@@ -3572,18 +3603,18 @@
         <v>92</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3606,16 +3637,16 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3665,7 +3696,7 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -3680,7 +3711,7 @@
         <v>92</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>72</v>
@@ -3688,10 +3719,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3714,19 +3745,19 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>72</v>
@@ -3775,7 +3806,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -3790,7 +3821,7 @@
         <v>92</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -3798,10 +3829,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3824,17 +3855,17 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>72</v>
@@ -3883,7 +3914,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -3898,7 +3929,7 @@
         <v>92</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>72</v>
@@ -3906,10 +3937,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3935,16 +3966,16 @@
         <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>72</v>
@@ -3972,10 +4003,10 @@
         <v>163</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>72</v>
@@ -3993,7 +4024,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -4008,18 +4039,18 @@
         <v>92</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4042,13 +4073,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4075,14 +4106,14 @@
         <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Z22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="AA22" t="s" s="2">
         <v>72</v>
       </c>
@@ -4099,7 +4130,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -4114,18 +4145,18 @@
         <v>92</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4148,13 +4179,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4205,7 +4236,7 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -4220,7 +4251,7 @@
         <v>92</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4228,10 +4259,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4254,19 +4285,19 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>72</v>
@@ -4315,7 +4346,7 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -4330,7 +4361,7 @@
         <v>92</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -4338,10 +4369,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4364,13 +4395,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4421,7 +4452,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -4436,7 +4467,7 @@
         <v>72</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -4444,10 +4475,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4473,10 +4504,10 @@
         <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>150</v>
@@ -4520,7 +4551,7 @@
         <v>128</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>72</v>
@@ -4529,7 +4560,7 @@
         <v>129</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -4552,13 +4583,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>147</v>
@@ -4580,13 +4611,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>150</v>
@@ -4639,7 +4670,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -4662,13 +4693,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C28" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>147</v>
@@ -4690,13 +4721,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>150</v>
@@ -4749,7 +4780,7 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4772,13 +4803,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>147</v>
@@ -4800,13 +4831,13 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>150</v>
@@ -4859,7 +4890,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -4882,12 +4913,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="B30" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>72</v>
       </c>
@@ -4902,26 +4935,22 @@
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>72</v>
       </c>
@@ -4933,7 +4962,7 @@
         <v>72</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>72</v>
@@ -4945,13 +4974,13 @@
         <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>72</v>
@@ -4969,22 +4998,22 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
@@ -4992,12 +5021,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>72</v>
       </c>
@@ -5015,20 +5046,18 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>72</v>
@@ -5041,7 +5070,7 @@
         <v>72</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>72</v>
@@ -5053,13 +5082,13 @@
         <v>72</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>72</v>
@@ -5077,22 +5106,22 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
@@ -5100,12 +5129,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>72</v>
       </c>
@@ -5114,7 +5145,7 @@
         <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -5123,23 +5154,21 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>72</v>
       </c>
@@ -5151,7 +5180,7 @@
         <v>72</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>261</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>72</v>
@@ -5187,22 +5216,22 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -5210,10 +5239,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5224,30 +5253,32 @@
         <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>72</v>
       </c>
@@ -5259,7 +5290,7 @@
         <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>72</v>
@@ -5271,13 +5302,13 @@
         <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>72</v>
@@ -5295,13 +5326,13 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>136</v>
@@ -5310,7 +5341,7 @@
         <v>92</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5318,10 +5349,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5341,18 +5372,20 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>72</v>
@@ -5365,7 +5398,7 @@
         <v>72</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>72</v>
@@ -5377,13 +5410,13 @@
         <v>72</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>72</v>
@@ -5401,7 +5434,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -5410,13 +5443,13 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -5424,21 +5457,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -5447,21 +5480,23 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>72</v>
       </c>
@@ -5473,7 +5508,7 @@
         <v>72</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>72</v>
@@ -5497,34 +5532,34 @@
         <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>225</v>
+        <v>72</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
@@ -5532,16 +5567,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5557,19 +5590,19 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5583,7 +5616,7 @@
         <v>72</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>72</v>
+        <v>279</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>72</v>
@@ -5619,7 +5652,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5631,10 +5664,10 @@
         <v>136</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -5642,23 +5675,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -5670,17 +5701,15 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>72</v>
@@ -5729,22 +5758,22 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>282</v>
+        <v>173</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -5755,11 +5784,9 @@
         <v>283</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>147</v>
       </c>
@@ -5780,13 +5807,13 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>125</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>150</v>
@@ -5827,19 +5854,19 @@
         <v>72</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -5854,7 +5881,7 @@
         <v>131</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -5862,13 +5889,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>147</v>
@@ -5890,13 +5917,13 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>150</v>
@@ -5949,7 +5976,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -5964,7 +5991,7 @@
         <v>131</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -5972,13 +5999,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>147</v>
@@ -6000,13 +6027,13 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>150</v>
@@ -6059,7 +6086,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -6074,7 +6101,7 @@
         <v>131</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6082,13 +6109,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>147</v>
@@ -6110,13 +6137,13 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>150</v>
@@ -6169,7 +6196,7 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -6184,7 +6211,7 @@
         <v>131</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6192,13 +6219,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>147</v>
@@ -6220,13 +6247,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>150</v>
@@ -6279,7 +6306,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -6294,7 +6321,7 @@
         <v>131</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6302,23 +6329,23 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -6330,15 +6357,17 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>72</v>
@@ -6387,7 +6416,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -6402,7 +6431,7 @@
         <v>131</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>72</v>
+        <v>308</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -6410,21 +6439,23 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>72</v>
@@ -6436,15 +6467,17 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>176</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>72</v>
@@ -6466,49 +6499,49 @@
         <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -6516,21 +6549,23 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>317</v>
+        <v>147</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -6539,19 +6574,19 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6565,7 +6600,7 @@
         <v>72</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>72</v>
@@ -6601,22 +6636,22 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -6624,14 +6659,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="D46" t="s" s="2">
-        <v>324</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6647,20 +6684,18 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>126</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>72</v>
@@ -6673,7 +6708,7 @@
         <v>72</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>328</v>
+        <v>72</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>72</v>
@@ -6709,22 +6744,22 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -6732,14 +6767,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>332</v>
+        <v>72</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6755,20 +6790,18 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>72</v>
@@ -6790,7 +6823,7 @@
         <v>72</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>72</v>
+        <v>325</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>72</v>
@@ -6817,7 +6850,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -6826,13 +6859,13 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>336</v>
+        <v>72</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -6840,14 +6873,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6866,16 +6899,16 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6889,7 +6922,7 @@
         <v>72</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>72</v>
@@ -6925,7 +6958,7 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
@@ -6940,7 +6973,7 @@
         <v>92</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -6948,14 +6981,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6974,16 +7007,16 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6997,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>72</v>
@@ -7033,7 +7066,7 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -7048,7 +7081,7 @@
         <v>92</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7056,14 +7089,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>72</v>
+        <v>343</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7082,20 +7115,18 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>72</v>
       </c>
@@ -7107,7 +7138,7 @@
         <v>72</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>356</v>
+        <v>72</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>72</v>
@@ -7143,7 +7174,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -7155,10 +7186,10 @@
         <v>136</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>358</v>
+        <v>92</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7166,14 +7197,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>72</v>
+        <v>349</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7192,18 +7223,18 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>72</v>
       </c>
@@ -7215,7 +7246,7 @@
         <v>72</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>72</v>
+        <v>352</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>72</v>
@@ -7227,13 +7258,13 @@
         <v>72</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>364</v>
+        <v>72</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>365</v>
+        <v>72</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>366</v>
+        <v>72</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>72</v>
@@ -7251,7 +7282,7 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
@@ -7260,24 +7291,24 @@
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>198</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7297,21 +7328,21 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>369</v>
+        <v>175</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>72</v>
       </c>
@@ -7359,7 +7390,7 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -7368,13 +7399,13 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7382,10 +7413,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7405,19 +7436,23 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>176</v>
+        <v>362</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>219</v>
+        <v>363</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>72</v>
       </c>
@@ -7429,7 +7464,7 @@
         <v>72</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>72</v>
+        <v>367</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>72</v>
@@ -7465,7 +7500,7 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>221</v>
+        <v>368</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
@@ -7474,13 +7509,13 @@
         <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>72</v>
+        <v>369</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>174</v>
+        <v>370</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -7488,10 +7523,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7499,11 +7534,11 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H54" t="s" s="2">
         <v>72</v>
       </c>
@@ -7511,19 +7546,21 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>126</v>
+        <v>372</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>127</v>
+        <v>373</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>72</v>
       </c>
@@ -7547,65 +7584,65 @@
         <v>72</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>72</v>
+        <v>376</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>72</v>
+        <v>377</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AC54" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>226</v>
+        <v>371</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>72</v>
+        <v>378</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>72</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -7620,16 +7657,18 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>135</v>
+        <v>381</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>72</v>
       </c>
@@ -7677,22 +7716,22 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>226</v>
+        <v>379</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>72</v>
+        <v>383</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -7700,14 +7739,12 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>72</v>
       </c>
@@ -7728,13 +7765,13 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>381</v>
+        <v>175</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7785,22 +7822,22 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -7808,18 +7845,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>383</v>
+        <v>72</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>74</v>
@@ -7828,26 +7865,22 @@
         <v>72</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>125</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>384</v>
+        <v>126</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>72</v>
       </c>
@@ -7883,19 +7916,17 @@
         <v>72</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>386</v>
+        <v>225</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -7910,7 +7941,7 @@
         <v>131</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -7918,12 +7949,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="B58" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>72</v>
       </c>
@@ -7947,10 +7980,10 @@
         <v>388</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>389</v>
+        <v>126</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>390</v>
+        <v>135</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8001,22 +8034,22 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>387</v>
+        <v>225</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8024,18 +8057,20 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -8050,13 +8085,13 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>393</v>
+        <v>126</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>394</v>
+        <v>135</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8107,22 +8142,22 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -8130,42 +8165,46 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>72</v>
+        <v>393</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>388</v>
+        <v>125</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>72</v>
       </c>
@@ -8213,22 +8252,22 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>391</v>
+        <v>123</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8236,10 +8275,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8247,7 +8286,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -8259,23 +8298,19 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>403</v>
-      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>72</v>
       </c>
@@ -8323,10 +8358,10 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
@@ -8338,7 +8373,7 @@
         <v>92</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8346,10 +8381,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8357,7 +8392,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -8372,18 +8407,16 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>72</v>
       </c>
@@ -8431,10 +8464,10 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
@@ -8446,7 +8479,7 @@
         <v>92</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -8454,10 +8487,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8468,7 +8501,7 @@
         <v>73</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>72</v>
@@ -8480,17 +8513,15 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>72</v>
@@ -8539,13 +8570,13 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>72</v>
@@ -8554,7 +8585,7 @@
         <v>92</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -8562,10 +8593,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8585,19 +8616,23 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>176</v>
+        <v>409</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>219</v>
+        <v>410</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>72</v>
       </c>
@@ -8645,7 +8680,7 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>221</v>
+        <v>408</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
@@ -8657,10 +8692,10 @@
         <v>72</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>174</v>
+        <v>414</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -8668,21 +8703,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>72</v>
@@ -8694,18 +8729,18 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>125</v>
+        <v>416</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>223</v>
+        <v>417</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>72</v>
       </c>
@@ -8753,22 +8788,22 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>226</v>
+        <v>415</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>174</v>
+        <v>420</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -8776,14 +8811,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>383</v>
+        <v>72</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -8796,26 +8831,24 @@
         <v>72</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>125</v>
+        <v>380</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>72</v>
       </c>
@@ -8863,7 +8896,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -8875,10 +8908,10 @@
         <v>72</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>123</v>
+        <v>425</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -8886,10 +8919,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8900,7 +8933,7 @@
         <v>73</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>72</v>
@@ -8912,13 +8945,13 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>420</v>
+        <v>218</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>421</v>
+        <v>219</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8945,13 +8978,13 @@
         <v>72</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>422</v>
+        <v>72</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>423</v>
+        <v>72</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>72</v>
@@ -8969,22 +9002,22 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>419</v>
+        <v>220</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>415</v>
+        <v>173</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
@@ -8992,21 +9025,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>72</v>
@@ -9018,15 +9051,17 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>425</v>
+        <v>125</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>426</v>
+        <v>222</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>72</v>
@@ -9075,22 +9110,22 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>424</v>
+        <v>225</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>415</v>
+        <v>173</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9105,35 +9140,39 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>72</v>
+        <v>393</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>429</v>
+        <v>125</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>72</v>
       </c>
@@ -9181,22 +9220,22 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>415</v>
+        <v>123</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -9204,10 +9243,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9218,7 +9257,7 @@
         <v>73</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>72</v>
@@ -9230,13 +9269,13 @@
         <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>429</v>
+        <v>100</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9263,13 +9302,13 @@
         <v>72</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>72</v>
+        <v>432</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>72</v>
+        <v>433</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>72</v>
@@ -9287,13 +9326,13 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>72</v>
@@ -9302,7 +9341,7 @@
         <v>92</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9310,10 +9349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9336,7 +9375,7 @@
         <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>176</v>
+        <v>435</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>436</v>
@@ -9393,7 +9432,7 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
@@ -9408,7 +9447,7 @@
         <v>92</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>174</v>
+        <v>425</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -9430,7 +9469,7 @@
         <v>73</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>72</v>
@@ -9451,9 +9490,7 @@
         <v>441</v>
       </c>
       <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>442</v>
-      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>72</v>
       </c>
@@ -9507,7 +9544,7 @@
         <v>73</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>72</v>
@@ -9516,9 +9553,329 @@
         <v>92</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>174</v>
+        <v>425</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-location.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-location.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-location</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -430,7 +430,7 @@
     <t>ror-healthcareservice-capacity-reception</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-capacity-reception}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-capacity-reception}
 </t>
   </si>
   <si>
@@ -447,7 +447,7 @@
     <t>ror-healthcareservice-capacity-reception-crisis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-capacity-reception-crisis}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-capacity-reception-crisis}
 </t>
   </si>
   <si>
@@ -457,7 +457,7 @@
     <t>ror-healthcareservice-residential-capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-residential-capacity}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-residential-capacity}
 </t>
   </si>
   <si>
@@ -467,7 +467,7 @@
     <t>ror-code-region</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-code-region}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-code-region}
 </t>
   </si>
   <si>
@@ -762,7 +762,7 @@
     <t>ror-commune-cog</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-commune-cog}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-commune-cog}
 </t>
   </si>
   <si>
@@ -772,7 +772,7 @@
     <t>ror-address-calculated-distance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-address-calculated-distance}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-address-calculated-distance}
 </t>
   </si>
   <si>
@@ -782,7 +782,7 @@
     <t>ror-geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-geolocation}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-geolocation}
 </t>
   </si>
   <si>
@@ -1021,7 +1021,7 @@
     <t>ror-organization-address-line-iso-21090-adxp-locality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
 </t>
   </si>
   <si>
@@ -1231,7 +1231,7 @@
     <t>ror-location-geodesic-system</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-location-geodesic-system}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location-geodesic-system}
 </t>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
     <t>ror-location-reliable-position</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-location-reliable-position}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location-reliable-position}
 </t>
   </si>
   <si>
@@ -1748,7 +1748,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="133.42578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-location.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-location</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -430,7 +430,7 @@
     <t>ror-healthcareservice-capacity-reception</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-capacity-reception}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-capacity-reception}
 </t>
   </si>
   <si>
@@ -447,7 +447,7 @@
     <t>ror-healthcareservice-capacity-reception-crisis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-capacity-reception-crisis}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-capacity-reception-crisis}
 </t>
   </si>
   <si>
@@ -457,7 +457,7 @@
     <t>ror-healthcareservice-residential-capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-residential-capacity}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-residential-capacity}
 </t>
   </si>
   <si>
@@ -467,7 +467,7 @@
     <t>ror-code-region</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-code-region}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-code-region}
 </t>
   </si>
   <si>
@@ -528,7 +528,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J224-StatutLieu-ROR/FHIR/JDV-J224-StatutLieu-ROR</t>
+    <t>Indicates whether the location is still in use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
   </si>
   <si>
     <t>.statusCode</t>
@@ -762,7 +765,7 @@
     <t>ror-commune-cog</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-commune-cog}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-commune-cog}
 </t>
   </si>
   <si>
@@ -772,7 +775,7 @@
     <t>ror-address-calculated-distance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-address-calculated-distance}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-address-calculated-distance}
 </t>
   </si>
   <si>
@@ -782,17 +785,8 @@
     <t>ror-geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-geolocation}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-geolocation}
 </t>
-  </si>
-  <si>
-    <t>The absolute geographic location</t>
-  </si>
-  <si>
-    <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This        is the same co-ordinate system used in KML).</t>
-  </si>
-  <si>
-    <t>The extension can be further extended to include unique geolocation identifiers, confidence,        altitude, etc.</t>
   </si>
   <si>
     <t>Location.address.use</t>
@@ -1021,7 +1015,7 @@
     <t>ror-organization-address-line-iso-21090-adxp-locality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
 </t>
   </si>
   <si>
@@ -1210,6 +1204,9 @@
 </t>
   </si>
   <si>
+    <t>The absolute geographic location</t>
+  </si>
+  <si>
     <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
   </si>
   <si>
@@ -1231,7 +1228,7 @@
     <t>ror-location-geodesic-system</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location-geodesic-system}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-location-geodesic-system}
 </t>
   </si>
   <si>
@@ -1241,7 +1238,7 @@
     <t>ror-location-reliable-position</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location-reliable-position}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-location-reliable-position}
 </t>
   </si>
   <si>
@@ -1748,7 +1745,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="116.671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="118.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1763,7 +1760,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.6796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.62109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3462,9 +3459,11 @@
       <c r="X16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y16" s="2"/>
+      <c r="Y16" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>72</v>
@@ -3497,18 +3496,18 @@
         <v>92</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3531,13 +3530,13 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3567,10 +3566,10 @@
         <v>104</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>72</v>
@@ -3588,7 +3587,7 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
@@ -3603,18 +3602,18 @@
         <v>92</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3637,16 +3636,16 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3696,7 +3695,7 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -3711,7 +3710,7 @@
         <v>92</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>72</v>
@@ -3719,10 +3718,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3745,19 +3744,19 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>72</v>
@@ -3806,7 +3805,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -3821,7 +3820,7 @@
         <v>92</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -3829,10 +3828,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3855,17 +3854,17 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>72</v>
@@ -3914,7 +3913,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -3929,7 +3928,7 @@
         <v>92</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>72</v>
@@ -3937,10 +3936,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3966,16 +3965,16 @@
         <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>72</v>
@@ -4003,10 +4002,10 @@
         <v>163</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>72</v>
@@ -4024,7 +4023,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -4039,18 +4038,18 @@
         <v>92</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4073,13 +4072,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4106,13 +4105,13 @@
         <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="Z22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>72</v>
@@ -4130,7 +4129,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -4145,18 +4144,18 @@
         <v>92</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4179,13 +4178,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4236,7 +4235,7 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -4251,7 +4250,7 @@
         <v>92</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4259,10 +4258,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4285,19 +4284,19 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>72</v>
@@ -4346,7 +4345,7 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -4361,7 +4360,7 @@
         <v>92</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -4369,10 +4368,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4395,13 +4394,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4452,7 +4451,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -4467,7 +4466,7 @@
         <v>72</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -4475,10 +4474,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4504,10 +4503,10 @@
         <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>150</v>
@@ -4551,7 +4550,7 @@
         <v>128</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>72</v>
@@ -4560,7 +4559,7 @@
         <v>129</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -4583,13 +4582,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>147</v>
@@ -4611,13 +4610,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>150</v>
@@ -4670,7 +4669,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -4693,13 +4692,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>147</v>
@@ -4721,13 +4720,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>150</v>
@@ -4780,7 +4779,7 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4803,13 +4802,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>147</v>
@@ -4831,13 +4830,13 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>150</v>
@@ -4890,7 +4889,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -4913,13 +4912,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>72</v>
@@ -4941,7 +4940,7 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>126</v>
@@ -4998,7 +4997,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -5021,13 +5020,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>72</v>
@@ -5049,7 +5048,7 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>126</v>
@@ -5106,7 +5105,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -5129,13 +5128,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>72</v>
@@ -5157,17 +5156,15 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>72</v>
@@ -5216,7 +5213,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5239,10 +5236,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5268,16 +5265,16 @@
         <v>100</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>72</v>
@@ -5290,7 +5287,7 @@
         <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>72</v>
@@ -5305,28 +5302,28 @@
         <v>163</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -5341,7 +5338,7 @@
         <v>92</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5349,10 +5346,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5378,13 +5375,13 @@
         <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5398,7 +5395,7 @@
         <v>72</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>72</v>
@@ -5413,28 +5410,28 @@
         <v>163</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -5449,7 +5446,7 @@
         <v>92</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -5457,10 +5454,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5483,19 +5480,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>72</v>
@@ -5508,7 +5505,7 @@
         <v>72</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>72</v>
@@ -5544,7 +5541,7 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -5559,7 +5556,7 @@
         <v>92</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
@@ -5567,10 +5564,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5593,16 +5590,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5616,7 +5613,7 @@
         <v>72</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>72</v>
@@ -5652,7 +5649,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5667,7 +5664,7 @@
         <v>92</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -5675,10 +5672,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5701,13 +5698,13 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5758,7 +5755,7 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -5773,7 +5770,7 @@
         <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -5781,10 +5778,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5810,10 +5807,10 @@
         <v>125</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>150</v>
@@ -5857,7 +5854,7 @@
         <v>128</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>72</v>
@@ -5866,7 +5863,7 @@
         <v>129</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -5889,13 +5886,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>147</v>
@@ -5917,13 +5914,13 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>150</v>
@@ -5976,7 +5973,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -5991,7 +5988,7 @@
         <v>131</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -5999,13 +5996,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>147</v>
@@ -6027,13 +6024,13 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>150</v>
@@ -6086,7 +6083,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -6101,7 +6098,7 @@
         <v>131</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6109,13 +6106,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>147</v>
@@ -6137,13 +6134,13 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>150</v>
@@ -6196,7 +6193,7 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -6211,7 +6208,7 @@
         <v>131</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6219,13 +6216,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>147</v>
@@ -6247,13 +6244,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>150</v>
@@ -6306,7 +6303,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -6321,7 +6318,7 @@
         <v>131</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6329,13 +6326,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>147</v>
@@ -6357,13 +6354,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>150</v>
@@ -6416,7 +6413,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -6431,7 +6428,7 @@
         <v>131</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -6439,13 +6436,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>147</v>
@@ -6467,13 +6464,13 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>150</v>
@@ -6526,7 +6523,7 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -6541,7 +6538,7 @@
         <v>131</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -6549,13 +6546,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>147</v>
@@ -6577,13 +6574,13 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>150</v>
@@ -6636,7 +6633,7 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -6651,7 +6648,7 @@
         <v>131</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -6659,13 +6656,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>72</v>
@@ -6687,7 +6684,7 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>126</v>
@@ -6744,7 +6741,7 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -6767,10 +6764,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6793,13 +6790,13 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6823,7 +6820,7 @@
         <v>72</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>72</v>
@@ -6850,7 +6847,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -6873,14 +6870,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6899,16 +6896,16 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6922,7 +6919,7 @@
         <v>72</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>72</v>
@@ -6958,7 +6955,7 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
@@ -6973,7 +6970,7 @@
         <v>92</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -6981,14 +6978,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7007,16 +7004,16 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7030,7 +7027,7 @@
         <v>72</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>72</v>
@@ -7066,7 +7063,7 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -7081,7 +7078,7 @@
         <v>92</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7089,14 +7086,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7115,16 +7112,16 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7174,7 +7171,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -7189,7 +7186,7 @@
         <v>92</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7197,14 +7194,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7223,16 +7220,16 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7246,7 +7243,7 @@
         <v>72</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>72</v>
@@ -7282,7 +7279,7 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
@@ -7297,7 +7294,7 @@
         <v>92</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7305,10 +7302,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7331,16 +7328,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7390,7 +7387,7 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -7405,7 +7402,7 @@
         <v>92</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7413,10 +7410,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7439,19 +7436,19 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>72</v>
@@ -7464,7 +7461,7 @@
         <v>72</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>72</v>
@@ -7500,7 +7497,7 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
@@ -7512,10 +7509,10 @@
         <v>136</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -7523,10 +7520,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7549,17 +7546,17 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>72</v>
@@ -7584,14 +7581,14 @@
         <v>72</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>72</v>
       </c>
@@ -7608,7 +7605,7 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
@@ -7623,18 +7620,18 @@
         <v>92</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7657,17 +7654,17 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>72</v>
@@ -7716,7 +7713,7 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
@@ -7731,7 +7728,7 @@
         <v>92</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -7739,10 +7736,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7765,13 +7762,13 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7822,7 +7819,7 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
@@ -7837,7 +7834,7 @@
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -7845,10 +7842,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7926,7 +7923,7 @@
         <v>129</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -7949,13 +7946,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>72</v>
@@ -7977,7 +7974,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>126</v>
@@ -8034,7 +8031,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -8057,13 +8054,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>72</v>
@@ -8085,7 +8082,7 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>126</v>
@@ -8142,7 +8139,7 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -8165,14 +8162,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8194,10 +8191,10 @@
         <v>125</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>150</v>
@@ -8252,7 +8249,7 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -8275,10 +8272,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8301,13 +8298,13 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8358,7 +8355,7 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8373,7 +8370,7 @@
         <v>92</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8381,10 +8378,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8407,13 +8404,13 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8464,7 +8461,7 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -8479,7 +8476,7 @@
         <v>92</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -8487,10 +8484,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8513,13 +8510,13 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8570,7 +8567,7 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
@@ -8585,7 +8582,7 @@
         <v>92</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -8593,10 +8590,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8619,19 +8616,19 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>72</v>
@@ -8680,7 +8677,7 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
@@ -8695,7 +8692,7 @@
         <v>92</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -8703,10 +8700,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8729,17 +8726,17 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>72</v>
@@ -8788,7 +8785,7 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
@@ -8803,7 +8800,7 @@
         <v>92</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -8811,10 +8808,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8837,16 +8834,16 @@
         <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8896,7 +8893,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -8911,7 +8908,7 @@
         <v>92</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -8919,10 +8916,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8945,13 +8942,13 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9002,7 +8999,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
@@ -9017,7 +9014,7 @@
         <v>72</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
@@ -9025,10 +9022,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9054,10 +9051,10 @@
         <v>125</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>150</v>
@@ -9110,7 +9107,7 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
@@ -9125,7 +9122,7 @@
         <v>131</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9133,14 +9130,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9162,10 +9159,10 @@
         <v>125</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>150</v>
@@ -9220,7 +9217,7 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -9243,10 +9240,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9272,10 +9269,10 @@
         <v>100</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9305,11 +9302,11 @@
         <v>163</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>72</v>
       </c>
@@ -9326,7 +9323,7 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
@@ -9341,7 +9338,7 @@
         <v>92</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9349,10 +9346,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9375,13 +9372,13 @@
         <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9432,7 +9429,7 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
@@ -9447,7 +9444,7 @@
         <v>92</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -9455,10 +9452,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9481,13 +9478,13 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9538,7 +9535,7 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
@@ -9553,7 +9550,7 @@
         <v>92</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -9561,10 +9558,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9587,13 +9584,13 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9644,7 +9641,7 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -9659,7 +9656,7 @@
         <v>92</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -9667,10 +9664,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9693,13 +9690,13 @@
         <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9750,7 +9747,7 @@
         <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -9765,7 +9762,7 @@
         <v>92</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -9773,10 +9770,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9799,17 +9796,17 @@
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>72</v>
@@ -9858,7 +9855,7 @@
         <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>73</v>
@@ -9873,7 +9870,7 @@
         <v>92</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-location.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil crée dans le cadre du ROR</t>
+    <t>Profil créé à partir de la ressource Location dans le cadre du ROR</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-location.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
